--- a/scripts/generate_programs/input_data/hotsdn.xlsx
+++ b/scripts/generate_programs/input_data/hotsdn.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a-roberg\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2620" yWindow="140" windowWidth="24560" windowHeight="15960" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13875" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="130407" concurrentCalc="0"/>
+  <calcPr calcId="130407"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
@@ -49,9 +54,6 @@
     <t>M. Said Seddiki; Muhammad Shahbaz; Sean Donovan; Sarthak Grover; Miseon Park; Nick Feamster; Ye-Qiong Song</t>
   </si>
   <si>
-    <t>A Secure Computation Framework for Software Defined Networks</t>
-  </si>
-  <si>
     <t>An Assertion Language for Debugging SDN Applications</t>
   </si>
   <si>
@@ -156,9 +158,6 @@
     <t>Balakrishnan Chandrasekaran; Theophilus Benson</t>
   </si>
   <si>
-    <t>RadioVisor: A Slicing Plane for Radio Access Networks</t>
-  </si>
-  <si>
     <t>Aditya Gudipati; Li Erran Li; Sachin Katti</t>
   </si>
   <si>
@@ -168,18 +167,12 @@
     <t>Shijie Zhou; Weirong Jiang; Viktor K. Prasanna</t>
   </si>
   <si>
-    <t>Using Mac Addresses as Efficient Routing Labels in Data Centers</t>
-  </si>
-  <si>
     <t>Shadow MACs: Scalable Label-switching for Commodity Ethernet</t>
   </si>
   <si>
     <t>Kanak Agarwal; Colin Dixon; Eric Rozner; John Carter</t>
   </si>
   <si>
-    <t>CAB: A Reactive Wildcard Rule Caching System for Software Defined Networks</t>
-  </si>
-  <si>
     <t>Bo Yan; Yang Xu; Hongya Xing; Kang Xi; H. Jonathan Chao</t>
   </si>
   <si>
@@ -213,18 +206,12 @@
     <t>Xitao Wen; Chunxiao Diao; Xun Zhao; Yan Chen; Li Erran Li; Bo Yang; Kai Bu</t>
   </si>
   <si>
-    <t>Real-time alpha fairness based traffic engineering</t>
-  </si>
-  <si>
     <t>Bill McCormick; Frank Kelly; Patrice Plante; Paul Gunning; Peter Ashwood-Smith</t>
   </si>
   <si>
     <t>C. Jasson Casey; Andrew Sutton; Alex Sprintson</t>
   </si>
   <si>
-    <t>ProCel: Smart Traffic handling for a Scalable Software EPC</t>
-  </si>
-  <si>
     <t>Kanthi Nagaraj; Sachin Katti</t>
   </si>
   <si>
@@ -246,9 +233,6 @@
     <t>Masoud Moshref; Apoorv Bhargava; Adhip Gupta; Minlan Yu; Ramesh Govindan</t>
   </si>
   <si>
-    <t>Toward Systematic Detection and Resolution of Network Control Conflicts</t>
-  </si>
-  <si>
     <t>Dennis Volpano; Xin Sun; Geoffrey Xie</t>
   </si>
   <si>
@@ -258,9 +242,6 @@
     <t>Peter Peresini; Maciej Kuzniar; Marco Canini; Dejan Kostic</t>
   </si>
   <si>
-    <t>Distributed Collaborative Monitoring in Software Defined Networks</t>
-  </si>
-  <si>
     <t>Ye Yu; Chen Qian; Xin Li</t>
   </si>
   <si>
@@ -276,19 +257,10 @@
     <t>Josh Bailey; Dean Pemberton; Andy Linton; Cristel Pelsser; Randy Bush</t>
   </si>
   <si>
-    <t>Flow-Based Load Balancing in Multipathed Layer-2 Networks using OpenFlow and Multipath TCP</t>
-  </si>
-  <si>
     <t>Michael Bredel; Zdravko Bozakov; Artur Barczyk; Harvey Newman</t>
   </si>
   <si>
-    <t>SDLoad: An extensible framework for SDN workload generation</t>
-  </si>
-  <si>
     <t>Nicolas Laurent; Stefano Vissicchio; Marco Canini</t>
-  </si>
-  <si>
-    <t>AeroFlux: A Near-Sighted Controller Architecture for Software-Defined Wireless Networks</t>
   </si>
   <si>
     <t>Julius Schulz-Zander; Nadi Sarrar; Stefan Schmid</t>
@@ -427,9 +399,6 @@
     <t>Michael Borokhovich; Liron Schiff; Stefan Schmid</t>
   </si>
   <si>
-    <t>Optimizing rules placement in OpenFlow networks: trading routing for better efficiency</t>
-  </si>
-  <si>
     <t>Xuan-Nam NGUYEN; Damien SAUCEZ; Chadi BARAKAT; Thierry TURLETTI</t>
   </si>
   <si>
@@ -464,13 +433,49 @@
   </si>
   <si>
     <t>tinyNBI: Distilling an API from essential OpenFlow abstractions</t>
+  </si>
+  <si>
+    <t>ProCel: Smart Traffic Handling for a Scalable Software EPC</t>
+  </si>
+  <si>
+    <t>Towards Systematic Detection and Resolution of Network Control Conflicts</t>
+  </si>
+  <si>
+    <t>Distributed and Collaborative Traffic Monitoring in Software Defined Networks</t>
+  </si>
+  <si>
+    <t>Optimizing Rules Placement in OpenFlow Networks: Trading Routing for Better Efficiency</t>
+  </si>
+  <si>
+    <t>CAB: A Reactive Wildcard Rule Caching System for Software-Defined Networks</t>
+  </si>
+  <si>
+    <t>Real Time Alpha-fairness Based Traffic Engineering</t>
+  </si>
+  <si>
+    <t>A Secure Computation Framework for SDNs</t>
+  </si>
+  <si>
+    <t>Flow-Based Load Balancing in Multipathed Layer-2 Networks using OpenFlow and Multipath-TCP</t>
+  </si>
+  <si>
+    <t>Towards a Scalable and Near-Sighted Control Plane Architecture for WiFi SDNs</t>
+  </si>
+  <si>
+    <t>SDLoad: An Extensible Framework for SDN Workload Generation</t>
+  </si>
+  <si>
+    <t>Radio Visor : A Slicing Plane for Radio Access Networks</t>
+  </si>
+  <si>
+    <t>Using MAC Addresses as Efficient Routing Labels in Data Centers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -522,6 +527,19 @@
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -551,7 +569,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -571,6 +589,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -579,6 +599,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -903,48 +931,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+    <col min="1" max="1" width="27.375" customWidth="1"/>
     <col min="2" max="2" width="45" customWidth="1"/>
-    <col min="3" max="3" width="41.33203125" customWidth="1"/>
+    <col min="3" max="3" width="41.375" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="60">
+    <row r="1" spans="1:8" ht="63" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="C1" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" ht="18">
+    <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -952,15 +980,15 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="18">
+    <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -968,13 +996,13 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="90">
+    <row r="4" spans="1:8" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -982,13 +1010,13 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="18">
+    <row r="5" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -996,13 +1024,13 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="36">
+    <row r="6" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -1010,13 +1038,13 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" ht="36">
+    <row r="7" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -1024,15 +1052,15 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" ht="18">
+    <row r="8" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -1040,13 +1068,13 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" ht="54">
+    <row r="9" spans="1:8" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="6" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -1054,13 +1082,13 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" ht="18">
+    <row r="10" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="6" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -1068,13 +1096,13 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" ht="36">
+    <row r="11" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="6" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1082,13 +1110,13 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" ht="18">
+    <row r="12" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
-      <c r="B12" s="6" t="s">
-        <v>66</v>
+      <c r="B12" s="9" t="s">
+        <v>127</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -1096,13 +1124,13 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" ht="18">
+    <row r="13" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -1110,13 +1138,13 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" ht="18">
+    <row r="14" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -1124,12 +1152,12 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" ht="18">
+    <row r="15" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="3"/>
@@ -1138,15 +1166,15 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" ht="18">
+    <row r="16" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -1154,13 +1182,13 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" ht="36">
+    <row r="17" spans="1:8" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -1168,13 +1196,13 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" ht="18">
+    <row r="18" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
-      <c r="B18" s="6" t="s">
-        <v>74</v>
+      <c r="B18" s="9" t="s">
+        <v>128</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -1182,13 +1210,13 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" ht="36">
+    <row r="19" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="6" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -1196,13 +1224,13 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" ht="18">
+    <row r="20" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="6" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -1210,13 +1238,13 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" ht="18">
+    <row r="21" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
-      <c r="B21" s="3" t="s">
-        <v>78</v>
+      <c r="B21" s="10" t="s">
+        <v>129</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -1224,15 +1252,15 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8" ht="18">
+    <row r="22" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -1240,13 +1268,13 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" ht="18">
+    <row r="23" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -1254,13 +1282,13 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8" ht="18">
+    <row r="24" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -1268,13 +1296,13 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8" ht="18">
+    <row r="25" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -1282,13 +1310,13 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8" ht="18">
+    <row r="26" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -1296,12 +1324,12 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:8" ht="18">
+    <row r="27" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="3"/>
@@ -1310,15 +1338,15 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:8" ht="18">
+    <row r="28" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -1326,13 +1354,13 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:8" ht="18">
+    <row r="29" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
-      <c r="B29" s="6" t="s">
-        <v>48</v>
+      <c r="B29" s="9" t="s">
+        <v>138</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -1340,13 +1368,13 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:8" ht="36">
+    <row r="30" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="6" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -1354,13 +1382,13 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:8" ht="36">
+    <row r="31" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
-      <c r="B31" s="6" t="s">
-        <v>126</v>
+      <c r="B31" s="9" t="s">
+        <v>130</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -1368,13 +1396,13 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:8" ht="36">
+    <row r="32" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="6" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -1382,13 +1410,13 @@
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" spans="1:8" ht="36">
+    <row r="33" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
       <c r="B33" s="6" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -1396,13 +1424,13 @@
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
     </row>
-    <row r="34" spans="1:8" ht="36">
+    <row r="34" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="6" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -1410,15 +1438,15 @@
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
     </row>
-    <row r="35" spans="1:8" ht="18">
+    <row r="35" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -1426,13 +1454,13 @@
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="1:8" ht="54">
+    <row r="36" spans="1:8" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
       <c r="B36" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -1440,13 +1468,13 @@
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
     </row>
-    <row r="37" spans="1:8" ht="36">
+    <row r="37" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
       <c r="B37" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -1454,13 +1482,13 @@
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="1:8" ht="36">
+    <row r="38" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
-      <c r="B38" s="6" t="s">
-        <v>51</v>
+      <c r="B38" s="9" t="s">
+        <v>131</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -1468,13 +1496,13 @@
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
     </row>
-    <row r="39" spans="1:8" ht="36">
+    <row r="39" spans="1:8" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -1482,12 +1510,12 @@
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
     </row>
-    <row r="40" spans="1:8" ht="18">
+    <row r="40" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="3"/>
@@ -1496,15 +1524,15 @@
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
     </row>
-    <row r="41" spans="1:8" ht="18">
+    <row r="41" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -1512,13 +1540,13 @@
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
     </row>
-    <row r="42" spans="1:8" ht="36">
+    <row r="42" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -1526,13 +1554,13 @@
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
     </row>
-    <row r="43" spans="1:8" ht="36">
+    <row r="43" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
       <c r="B43" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -1540,13 +1568,13 @@
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
     </row>
-    <row r="44" spans="1:8" ht="18">
+    <row r="44" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
       <c r="B44" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -1554,13 +1582,13 @@
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
     </row>
-    <row r="45" spans="1:8" ht="36">
+    <row r="45" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A45" s="3"/>
       <c r="B45" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -1568,12 +1596,12 @@
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
     </row>
-    <row r="46" spans="1:8" ht="18">
+    <row r="46" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C46" s="8"/>
       <c r="D46" s="3"/>
@@ -1582,13 +1610,13 @@
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
     </row>
-    <row r="47" spans="1:8" ht="36">
+    <row r="47" spans="1:8" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A47" s="3"/>
-      <c r="B47" s="3" t="s">
-        <v>63</v>
+      <c r="B47" s="10" t="s">
+        <v>132</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -1596,7 +1624,7 @@
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
     </row>
-    <row r="48" spans="1:8" ht="36">
+    <row r="48" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A48" s="3"/>
       <c r="B48" s="3" t="s">
         <v>1</v>
@@ -1610,7 +1638,7 @@
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
     </row>
-    <row r="49" spans="1:8" ht="18">
+    <row r="49" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
         <v>3</v>
@@ -1624,7 +1652,7 @@
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
     </row>
-    <row r="50" spans="1:8" ht="36">
+    <row r="50" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A50" s="3"/>
       <c r="B50" s="3" t="s">
         <v>5</v>
@@ -1638,7 +1666,7 @@
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
     </row>
-    <row r="51" spans="1:8" ht="54">
+    <row r="51" spans="1:8" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A51" s="3"/>
       <c r="B51" s="3" t="s">
         <v>7</v>
@@ -1652,13 +1680,13 @@
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
     </row>
-    <row r="52" spans="1:8" ht="54">
+    <row r="52" spans="1:8" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A52" s="3"/>
-      <c r="B52" s="3" t="s">
-        <v>9</v>
+      <c r="B52" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -1666,13 +1694,13 @@
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
     </row>
-    <row r="53" spans="1:8" ht="36">
+    <row r="53" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A53" s="3"/>
       <c r="B53" s="3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -1680,13 +1708,13 @@
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
     </row>
-    <row r="54" spans="1:8" ht="36">
+    <row r="54" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A54" s="3"/>
-      <c r="B54" s="3" t="s">
-        <v>84</v>
+      <c r="B54" s="10" t="s">
+        <v>134</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -1694,13 +1722,13 @@
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
     </row>
-    <row r="55" spans="1:8" ht="36">
+    <row r="55" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A55" s="3"/>
-      <c r="B55" s="3" t="s">
-        <v>86</v>
+      <c r="B55" s="10" t="s">
+        <v>136</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -1708,13 +1736,13 @@
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
     </row>
-    <row r="56" spans="1:8" ht="36">
+    <row r="56" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A56" s="3"/>
-      <c r="B56" s="3" t="s">
-        <v>88</v>
+      <c r="B56" s="10" t="s">
+        <v>135</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -1722,13 +1750,13 @@
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
     </row>
-    <row r="57" spans="1:8" ht="36">
+    <row r="57" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A57" s="3"/>
       <c r="B57" s="3" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -1736,13 +1764,13 @@
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
     </row>
-    <row r="58" spans="1:8" ht="36">
+    <row r="58" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A58" s="3"/>
       <c r="B58" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -1750,13 +1778,13 @@
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
     </row>
-    <row r="59" spans="1:8" ht="18">
+    <row r="59" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A59" s="3"/>
       <c r="B59" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -1764,13 +1792,13 @@
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
     </row>
-    <row r="60" spans="1:8" ht="36">
+    <row r="60" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A60" s="3"/>
       <c r="B60" s="3" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -1778,13 +1806,13 @@
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
     </row>
-    <row r="61" spans="1:8" ht="36">
+    <row r="61" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A61" s="3"/>
       <c r="B61" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -1792,13 +1820,13 @@
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
     </row>
-    <row r="62" spans="1:8" ht="18">
+    <row r="62" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A62" s="3"/>
       <c r="B62" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -1806,13 +1834,13 @@
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
     </row>
-    <row r="63" spans="1:8" ht="36">
+    <row r="63" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A63" s="3"/>
       <c r="B63" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -1820,13 +1848,13 @@
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
     </row>
-    <row r="64" spans="1:8" ht="36">
+    <row r="64" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A64" s="3"/>
       <c r="B64" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -1834,13 +1862,13 @@
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
     </row>
-    <row r="65" spans="1:8" ht="36">
+    <row r="65" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A65" s="3"/>
       <c r="B65" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -1848,13 +1876,13 @@
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
     </row>
-    <row r="66" spans="1:8" ht="18">
+    <row r="66" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A66" s="3"/>
-      <c r="B66" s="3" t="s">
-        <v>44</v>
+      <c r="B66" s="10" t="s">
+        <v>137</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -1862,13 +1890,13 @@
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
     </row>
-    <row r="67" spans="1:8" ht="36">
+    <row r="67" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A67" s="3"/>
       <c r="B67" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -1876,7 +1904,7 @@
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
     </row>
-    <row r="68" spans="1:8" ht="18">
+    <row r="68" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="2"/>
@@ -1886,7 +1914,7 @@
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
     </row>
-    <row r="69" spans="1:8" ht="18">
+    <row r="69" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="2"/>
@@ -1896,7 +1924,7 @@
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
     </row>
-    <row r="70" spans="1:8" ht="18">
+    <row r="70" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="2"/>
@@ -1906,7 +1934,7 @@
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
     </row>
-    <row r="71" spans="1:8" ht="18">
+    <row r="71" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="2"/>
@@ -1916,7 +1944,7 @@
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
     </row>
-    <row r="72" spans="1:8" ht="18">
+    <row r="72" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="2"/>
@@ -1926,7 +1954,7 @@
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
     </row>
-    <row r="73" spans="1:8" ht="18">
+    <row r="73" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="2"/>
@@ -1936,7 +1964,7 @@
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
     </row>
-    <row r="74" spans="1:8" ht="18">
+    <row r="74" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="2"/>
@@ -1946,7 +1974,7 @@
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
     </row>
-    <row r="75" spans="1:8" ht="18">
+    <row r="75" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="2"/>
@@ -1956,7 +1984,7 @@
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
     </row>
-    <row r="76" spans="1:8" ht="18">
+    <row r="76" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="2"/>
@@ -1966,7 +1994,7 @@
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
     </row>
-    <row r="77" spans="1:8" ht="18">
+    <row r="77" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="2"/>
@@ -1976,7 +2004,7 @@
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
     </row>
-    <row r="78" spans="1:8" ht="18">
+    <row r="78" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="2"/>
@@ -1986,7 +2014,7 @@
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
     </row>
-    <row r="79" spans="1:8" ht="18">
+    <row r="79" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="2"/>
@@ -1996,7 +2024,7 @@
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
     </row>
-    <row r="80" spans="1:8" ht="18">
+    <row r="80" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="2"/>
@@ -2006,7 +2034,7 @@
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
     </row>
-    <row r="81" spans="1:8" ht="18">
+    <row r="81" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="2"/>
@@ -2016,7 +2044,7 @@
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
     </row>
-    <row r="82" spans="1:8" ht="18">
+    <row r="82" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="2"/>
@@ -2026,7 +2054,7 @@
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
     </row>
-    <row r="83" spans="1:8" ht="18">
+    <row r="83" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="2"/>
@@ -2036,7 +2064,7 @@
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
     </row>
-    <row r="84" spans="1:8" ht="18">
+    <row r="84" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="2"/>
@@ -2046,7 +2074,7 @@
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
     </row>
-    <row r="85" spans="1:8" ht="18">
+    <row r="85" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="2"/>
@@ -2056,7 +2084,7 @@
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
     </row>
-    <row r="86" spans="1:8" ht="18">
+    <row r="86" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="2"/>
@@ -2066,7 +2094,7 @@
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
     </row>
-    <row r="87" spans="1:8" ht="18">
+    <row r="87" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="2"/>
@@ -2076,7 +2104,7 @@
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
     </row>
-    <row r="88" spans="1:8" ht="18">
+    <row r="88" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="2"/>
@@ -2086,7 +2114,7 @@
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
     </row>
-    <row r="89" spans="1:8" ht="18">
+    <row r="89" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="2"/>
@@ -2096,7 +2124,7 @@
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
     </row>
-    <row r="90" spans="1:8" ht="18">
+    <row r="90" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="2"/>
@@ -2106,7 +2134,7 @@
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
     </row>
-    <row r="91" spans="1:8" ht="18">
+    <row r="91" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="2"/>
@@ -2116,7 +2144,7 @@
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
     </row>
-    <row r="92" spans="1:8" ht="18">
+    <row r="92" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="2"/>
@@ -2126,7 +2154,7 @@
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
     </row>
-    <row r="93" spans="1:8" ht="18">
+    <row r="93" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="2"/>
@@ -2136,7 +2164,7 @@
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
     </row>
-    <row r="94" spans="1:8" ht="18">
+    <row r="94" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="2"/>
@@ -2146,7 +2174,7 @@
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
     </row>
-    <row r="95" spans="1:8" ht="18">
+    <row r="95" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="2"/>
@@ -2156,7 +2184,7 @@
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
     </row>
-    <row r="96" spans="1:8" ht="18">
+    <row r="96" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="2"/>
@@ -2166,7 +2194,7 @@
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
     </row>
-    <row r="97" spans="1:8" ht="18">
+    <row r="97" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="2"/>
@@ -2176,7 +2204,7 @@
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
     </row>
-    <row r="98" spans="1:8" ht="18">
+    <row r="98" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="2"/>
@@ -2186,7 +2214,7 @@
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
     </row>
-    <row r="99" spans="1:8" ht="18">
+    <row r="99" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="2"/>
@@ -2196,7 +2224,7 @@
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
     </row>
-    <row r="100" spans="1:8" ht="18">
+    <row r="100" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="2"/>
@@ -2206,7 +2234,7 @@
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
     </row>
-    <row r="101" spans="1:8" ht="18">
+    <row r="101" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="2"/>
@@ -2216,7 +2244,7 @@
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
     </row>
-    <row r="102" spans="1:8" ht="18">
+    <row r="102" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="2"/>
@@ -2226,7 +2254,7 @@
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
     </row>
-    <row r="103" spans="1:8" ht="18">
+    <row r="103" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="2"/>
@@ -2236,7 +2264,7 @@
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
     </row>
-    <row r="104" spans="1:8" ht="18">
+    <row r="104" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="2"/>
@@ -2246,7 +2274,7 @@
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
     </row>
-    <row r="105" spans="1:8" ht="18">
+    <row r="105" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="2"/>
@@ -2256,7 +2284,7 @@
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
     </row>
-    <row r="106" spans="1:8" ht="18">
+    <row r="106" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="2"/>
@@ -2266,7 +2294,7 @@
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
     </row>
-    <row r="107" spans="1:8" ht="18">
+    <row r="107" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="2"/>
@@ -2276,7 +2304,7 @@
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
     </row>
-    <row r="108" spans="1:8" ht="18">
+    <row r="108" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="2"/>
@@ -2286,7 +2314,7 @@
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
     </row>
-    <row r="109" spans="1:8" ht="18">
+    <row r="109" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="2"/>
@@ -2296,7 +2324,7 @@
       <c r="G109" s="3"/>
       <c r="H109" s="3"/>
     </row>
-    <row r="110" spans="1:8" ht="18">
+    <row r="110" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="2"/>
@@ -2306,7 +2334,7 @@
       <c r="G110" s="3"/>
       <c r="H110" s="3"/>
     </row>
-    <row r="111" spans="1:8" ht="18">
+    <row r="111" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="2"/>
@@ -2316,7 +2344,7 @@
       <c r="G111" s="3"/>
       <c r="H111" s="3"/>
     </row>
-    <row r="112" spans="1:8" ht="18">
+    <row r="112" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="2"/>
@@ -2326,7 +2354,7 @@
       <c r="G112" s="3"/>
       <c r="H112" s="3"/>
     </row>
-    <row r="113" spans="1:8" ht="18">
+    <row r="113" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="2"/>
@@ -2336,7 +2364,7 @@
       <c r="G113" s="3"/>
       <c r="H113" s="3"/>
     </row>
-    <row r="114" spans="1:8" ht="18">
+    <row r="114" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="2"/>
@@ -2346,7 +2374,7 @@
       <c r="G114" s="3"/>
       <c r="H114" s="3"/>
     </row>
-    <row r="115" spans="1:8" ht="18">
+    <row r="115" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="2"/>
@@ -2356,7 +2384,7 @@
       <c r="G115" s="3"/>
       <c r="H115" s="3"/>
     </row>
-    <row r="116" spans="1:8" ht="18">
+    <row r="116" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="2"/>
@@ -2366,7 +2394,7 @@
       <c r="G116" s="3"/>
       <c r="H116" s="3"/>
     </row>
-    <row r="117" spans="1:8" ht="18">
+    <row r="117" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="2"/>
@@ -2376,7 +2404,7 @@
       <c r="G117" s="3"/>
       <c r="H117" s="3"/>
     </row>
-    <row r="118" spans="1:8" ht="18">
+    <row r="118" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="2"/>
@@ -2386,7 +2414,7 @@
       <c r="G118" s="3"/>
       <c r="H118" s="3"/>
     </row>
-    <row r="119" spans="1:8" ht="18">
+    <row r="119" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="2"/>
@@ -2396,7 +2424,7 @@
       <c r="G119" s="3"/>
       <c r="H119" s="3"/>
     </row>
-    <row r="120" spans="1:8" ht="18">
+    <row r="120" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="2"/>
@@ -2406,7 +2434,7 @@
       <c r="G120" s="3"/>
       <c r="H120" s="3"/>
     </row>
-    <row r="121" spans="1:8" ht="18">
+    <row r="121" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="2"/>
@@ -2416,7 +2444,7 @@
       <c r="G121" s="3"/>
       <c r="H121" s="3"/>
     </row>
-    <row r="122" spans="1:8" ht="18">
+    <row r="122" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="2"/>
@@ -2426,7 +2454,7 @@
       <c r="G122" s="3"/>
       <c r="H122" s="3"/>
     </row>
-    <row r="123" spans="1:8" ht="18">
+    <row r="123" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="2"/>
@@ -2436,7 +2464,7 @@
       <c r="G123" s="3"/>
       <c r="H123" s="3"/>
     </row>
-    <row r="124" spans="1:8" ht="18">
+    <row r="124" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="2"/>
@@ -2446,7 +2474,7 @@
       <c r="G124" s="3"/>
       <c r="H124" s="3"/>
     </row>
-    <row r="125" spans="1:8" ht="18">
+    <row r="125" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="2"/>
@@ -2456,7 +2484,7 @@
       <c r="G125" s="3"/>
       <c r="H125" s="3"/>
     </row>
-    <row r="126" spans="1:8" ht="18">
+    <row r="126" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="2"/>
@@ -2466,7 +2494,7 @@
       <c r="G126" s="3"/>
       <c r="H126" s="3"/>
     </row>
-    <row r="127" spans="1:8" ht="18">
+    <row r="127" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="2"/>
@@ -2476,7 +2504,7 @@
       <c r="G127" s="3"/>
       <c r="H127" s="3"/>
     </row>
-    <row r="128" spans="1:8" ht="18">
+    <row r="128" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="2"/>
@@ -2486,7 +2514,7 @@
       <c r="G128" s="3"/>
       <c r="H128" s="3"/>
     </row>
-    <row r="129" spans="1:8" ht="18">
+    <row r="129" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="2"/>
@@ -2496,7 +2524,7 @@
       <c r="G129" s="3"/>
       <c r="H129" s="3"/>
     </row>
-    <row r="130" spans="1:8" ht="18">
+    <row r="130" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="2"/>
@@ -2506,7 +2534,7 @@
       <c r="G130" s="3"/>
       <c r="H130" s="3"/>
     </row>
-    <row r="131" spans="1:8" ht="18">
+    <row r="131" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="2"/>
@@ -2516,7 +2544,7 @@
       <c r="G131" s="3"/>
       <c r="H131" s="3"/>
     </row>
-    <row r="132" spans="1:8" ht="18">
+    <row r="132" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="2"/>
@@ -2526,7 +2554,7 @@
       <c r="G132" s="3"/>
       <c r="H132" s="3"/>
     </row>
-    <row r="133" spans="1:8" ht="18">
+    <row r="133" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="2"/>
@@ -2536,7 +2564,7 @@
       <c r="G133" s="3"/>
       <c r="H133" s="3"/>
     </row>
-    <row r="134" spans="1:8" ht="18">
+    <row r="134" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="2"/>
@@ -2546,7 +2574,7 @@
       <c r="G134" s="3"/>
       <c r="H134" s="3"/>
     </row>
-    <row r="135" spans="1:8" ht="18">
+    <row r="135" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="2"/>
@@ -2556,7 +2584,7 @@
       <c r="G135" s="3"/>
       <c r="H135" s="3"/>
     </row>
-    <row r="136" spans="1:8" ht="18">
+    <row r="136" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="2"/>
@@ -2566,7 +2594,7 @@
       <c r="G136" s="3"/>
       <c r="H136" s="3"/>
     </row>
-    <row r="137" spans="1:8" ht="18">
+    <row r="137" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="2"/>
@@ -2576,7 +2604,7 @@
       <c r="G137" s="3"/>
       <c r="H137" s="3"/>
     </row>
-    <row r="138" spans="1:8" ht="18">
+    <row r="138" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="2"/>
@@ -2586,7 +2614,7 @@
       <c r="G138" s="3"/>
       <c r="H138" s="3"/>
     </row>
-    <row r="139" spans="1:8" ht="18">
+    <row r="139" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="2"/>
@@ -2596,7 +2624,7 @@
       <c r="G139" s="3"/>
       <c r="H139" s="3"/>
     </row>
-    <row r="140" spans="1:8" ht="18">
+    <row r="140" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="2"/>
@@ -2606,7 +2634,7 @@
       <c r="G140" s="3"/>
       <c r="H140" s="3"/>
     </row>
-    <row r="141" spans="1:8" ht="18">
+    <row r="141" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="2"/>
@@ -2616,7 +2644,7 @@
       <c r="G141" s="3"/>
       <c r="H141" s="3"/>
     </row>
-    <row r="142" spans="1:8" ht="18">
+    <row r="142" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="2"/>
@@ -2626,7 +2654,7 @@
       <c r="G142" s="3"/>
       <c r="H142" s="3"/>
     </row>
-    <row r="143" spans="1:8" ht="18">
+    <row r="143" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="2"/>
@@ -2636,7 +2664,7 @@
       <c r="G143" s="3"/>
       <c r="H143" s="3"/>
     </row>
-    <row r="144" spans="1:8" ht="18">
+    <row r="144" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="2"/>
@@ -2646,7 +2674,7 @@
       <c r="G144" s="3"/>
       <c r="H144" s="3"/>
     </row>
-    <row r="145" spans="1:8" ht="18">
+    <row r="145" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="2"/>
@@ -2656,7 +2684,7 @@
       <c r="G145" s="3"/>
       <c r="H145" s="3"/>
     </row>
-    <row r="146" spans="1:8" ht="18">
+    <row r="146" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="2"/>
@@ -2666,7 +2694,7 @@
       <c r="G146" s="3"/>
       <c r="H146" s="3"/>
     </row>
-    <row r="147" spans="1:8" ht="18">
+    <row r="147" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="2"/>
@@ -2676,7 +2704,7 @@
       <c r="G147" s="3"/>
       <c r="H147" s="3"/>
     </row>
-    <row r="148" spans="1:8" ht="18">
+    <row r="148" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="2"/>
@@ -2686,7 +2714,7 @@
       <c r="G148" s="3"/>
       <c r="H148" s="3"/>
     </row>
-    <row r="149" spans="1:8" ht="18">
+    <row r="149" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="2"/>
@@ -2696,7 +2724,7 @@
       <c r="G149" s="3"/>
       <c r="H149" s="3"/>
     </row>
-    <row r="150" spans="1:8" ht="18">
+    <row r="150" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="2"/>
@@ -2706,7 +2734,7 @@
       <c r="G150" s="3"/>
       <c r="H150" s="3"/>
     </row>
-    <row r="151" spans="1:8" ht="18">
+    <row r="151" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="2"/>
@@ -2716,7 +2744,7 @@
       <c r="G151" s="3"/>
       <c r="H151" s="3"/>
     </row>
-    <row r="152" spans="1:8" ht="18">
+    <row r="152" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="2"/>
@@ -2726,7 +2754,7 @@
       <c r="G152" s="3"/>
       <c r="H152" s="3"/>
     </row>
-    <row r="153" spans="1:8" ht="18">
+    <row r="153" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="2"/>
@@ -2736,7 +2764,7 @@
       <c r="G153" s="3"/>
       <c r="H153" s="3"/>
     </row>
-    <row r="154" spans="1:8" ht="18">
+    <row r="154" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="2"/>
@@ -2746,7 +2774,7 @@
       <c r="G154" s="3"/>
       <c r="H154" s="3"/>
     </row>
-    <row r="155" spans="1:8" ht="18">
+    <row r="155" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="2"/>
@@ -2756,7 +2784,7 @@
       <c r="G155" s="3"/>
       <c r="H155" s="3"/>
     </row>
-    <row r="156" spans="1:8" ht="18">
+    <row r="156" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="2"/>
@@ -2766,7 +2794,7 @@
       <c r="G156" s="3"/>
       <c r="H156" s="3"/>
     </row>
-    <row r="157" spans="1:8" ht="18">
+    <row r="157" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="2"/>
@@ -2776,7 +2804,7 @@
       <c r="G157" s="3"/>
       <c r="H157" s="3"/>
     </row>
-    <row r="158" spans="1:8" ht="18">
+    <row r="158" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="2"/>
@@ -2786,7 +2814,7 @@
       <c r="G158" s="3"/>
       <c r="H158" s="3"/>
     </row>
-    <row r="159" spans="1:8" ht="18">
+    <row r="159" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="2"/>
@@ -2796,7 +2824,7 @@
       <c r="G159" s="3"/>
       <c r="H159" s="3"/>
     </row>
-    <row r="160" spans="1:8" ht="18">
+    <row r="160" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="2"/>
@@ -2806,7 +2834,7 @@
       <c r="G160" s="3"/>
       <c r="H160" s="3"/>
     </row>
-    <row r="161" spans="1:8" ht="18">
+    <row r="161" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="2"/>
@@ -2816,7 +2844,7 @@
       <c r="G161" s="3"/>
       <c r="H161" s="3"/>
     </row>
-    <row r="162" spans="1:8" ht="18">
+    <row r="162" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="2"/>
@@ -2826,7 +2854,7 @@
       <c r="G162" s="3"/>
       <c r="H162" s="3"/>
     </row>
-    <row r="163" spans="1:8" ht="18">
+    <row r="163" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="2"/>
@@ -2836,7 +2864,7 @@
       <c r="G163" s="3"/>
       <c r="H163" s="3"/>
     </row>
-    <row r="164" spans="1:8" ht="18">
+    <row r="164" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="2"/>
@@ -2846,7 +2874,7 @@
       <c r="G164" s="3"/>
       <c r="H164" s="3"/>
     </row>
-    <row r="165" spans="1:8" ht="18">
+    <row r="165" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="2"/>
@@ -2856,7 +2884,7 @@
       <c r="G165" s="3"/>
       <c r="H165" s="3"/>
     </row>
-    <row r="166" spans="1:8" ht="18">
+    <row r="166" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="2"/>
@@ -2866,7 +2894,7 @@
       <c r="G166" s="3"/>
       <c r="H166" s="3"/>
     </row>
-    <row r="167" spans="1:8" ht="18">
+    <row r="167" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="2"/>
@@ -2876,7 +2904,7 @@
       <c r="G167" s="3"/>
       <c r="H167" s="3"/>
     </row>
-    <row r="168" spans="1:8" ht="18">
+    <row r="168" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="2"/>
@@ -2886,7 +2914,7 @@
       <c r="G168" s="3"/>
       <c r="H168" s="3"/>
     </row>
-    <row r="169" spans="1:8" ht="18">
+    <row r="169" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="2"/>
@@ -2896,7 +2924,7 @@
       <c r="G169" s="3"/>
       <c r="H169" s="3"/>
     </row>
-    <row r="170" spans="1:8" ht="18">
+    <row r="170" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="2"/>
@@ -2906,7 +2934,7 @@
       <c r="G170" s="3"/>
       <c r="H170" s="3"/>
     </row>
-    <row r="171" spans="1:8" ht="18">
+    <row r="171" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="2"/>
@@ -2916,7 +2944,7 @@
       <c r="G171" s="3"/>
       <c r="H171" s="3"/>
     </row>
-    <row r="172" spans="1:8" ht="18">
+    <row r="172" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="2"/>
@@ -2926,7 +2954,7 @@
       <c r="G172" s="3"/>
       <c r="H172" s="3"/>
     </row>
-    <row r="173" spans="1:8" ht="18">
+    <row r="173" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="2"/>
@@ -2936,7 +2964,7 @@
       <c r="G173" s="3"/>
       <c r="H173" s="3"/>
     </row>
-    <row r="174" spans="1:8" ht="18">
+    <row r="174" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="2"/>
@@ -2946,7 +2974,7 @@
       <c r="G174" s="3"/>
       <c r="H174" s="3"/>
     </row>
-    <row r="175" spans="1:8" ht="18">
+    <row r="175" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="2"/>
@@ -2956,7 +2984,7 @@
       <c r="G175" s="3"/>
       <c r="H175" s="3"/>
     </row>
-    <row r="176" spans="1:8" ht="18">
+    <row r="176" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="2"/>
@@ -2966,7 +2994,7 @@
       <c r="G176" s="3"/>
       <c r="H176" s="3"/>
     </row>
-    <row r="177" spans="1:8" ht="18">
+    <row r="177" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="2"/>
@@ -2976,7 +3004,7 @@
       <c r="G177" s="3"/>
       <c r="H177" s="3"/>
     </row>
-    <row r="178" spans="1:8" ht="18">
+    <row r="178" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="2"/>
@@ -2986,7 +3014,7 @@
       <c r="G178" s="3"/>
       <c r="H178" s="3"/>
     </row>
-    <row r="179" spans="1:8" ht="18">
+    <row r="179" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="2"/>
@@ -2996,7 +3024,7 @@
       <c r="G179" s="3"/>
       <c r="H179" s="3"/>
     </row>
-    <row r="180" spans="1:8" ht="18">
+    <row r="180" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="2"/>
@@ -3006,7 +3034,7 @@
       <c r="G180" s="3"/>
       <c r="H180" s="3"/>
     </row>
-    <row r="181" spans="1:8" ht="18">
+    <row r="181" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="2"/>
@@ -3016,7 +3044,7 @@
       <c r="G181" s="3"/>
       <c r="H181" s="3"/>
     </row>
-    <row r="182" spans="1:8" ht="18">
+    <row r="182" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="2"/>
@@ -3026,7 +3054,7 @@
       <c r="G182" s="3"/>
       <c r="H182" s="3"/>
     </row>
-    <row r="183" spans="1:8" ht="18">
+    <row r="183" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="2"/>
@@ -3036,7 +3064,7 @@
       <c r="G183" s="3"/>
       <c r="H183" s="3"/>
     </row>
-    <row r="184" spans="1:8" ht="18">
+    <row r="184" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="2"/>
@@ -3046,7 +3074,7 @@
       <c r="G184" s="3"/>
       <c r="H184" s="3"/>
     </row>
-    <row r="185" spans="1:8" ht="18">
+    <row r="185" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="2"/>
@@ -3056,7 +3084,7 @@
       <c r="G185" s="3"/>
       <c r="H185" s="3"/>
     </row>
-    <row r="186" spans="1:8" ht="18">
+    <row r="186" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="2"/>
@@ -3066,7 +3094,7 @@
       <c r="G186" s="3"/>
       <c r="H186" s="3"/>
     </row>
-    <row r="187" spans="1:8" ht="18">
+    <row r="187" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="2"/>
@@ -3076,7 +3104,7 @@
       <c r="G187" s="3"/>
       <c r="H187" s="3"/>
     </row>
-    <row r="188" spans="1:8" ht="18">
+    <row r="188" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="2"/>
@@ -3086,7 +3114,7 @@
       <c r="G188" s="3"/>
       <c r="H188" s="3"/>
     </row>
-    <row r="189" spans="1:8" ht="18">
+    <row r="189" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="2"/>
@@ -3096,7 +3124,7 @@
       <c r="G189" s="3"/>
       <c r="H189" s="3"/>
     </row>
-    <row r="190" spans="1:8" ht="18">
+    <row r="190" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="2"/>
@@ -3106,7 +3134,7 @@
       <c r="G190" s="3"/>
       <c r="H190" s="3"/>
     </row>
-    <row r="191" spans="1:8" ht="18">
+    <row r="191" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="2"/>
@@ -3116,7 +3144,7 @@
       <c r="G191" s="3"/>
       <c r="H191" s="3"/>
     </row>
-    <row r="192" spans="1:8" ht="18">
+    <row r="192" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="2"/>
@@ -3126,7 +3154,7 @@
       <c r="G192" s="3"/>
       <c r="H192" s="3"/>
     </row>
-    <row r="193" spans="1:8" ht="18">
+    <row r="193" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="2"/>
@@ -3136,7 +3164,7 @@
       <c r="G193" s="3"/>
       <c r="H193" s="3"/>
     </row>
-    <row r="194" spans="1:8" ht="18">
+    <row r="194" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="2"/>
@@ -3146,7 +3174,7 @@
       <c r="G194" s="3"/>
       <c r="H194" s="3"/>
     </row>
-    <row r="195" spans="1:8" ht="18">
+    <row r="195" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="2"/>
@@ -3156,7 +3184,7 @@
       <c r="G195" s="3"/>
       <c r="H195" s="3"/>
     </row>
-    <row r="196" spans="1:8" ht="18">
+    <row r="196" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="2"/>
@@ -3166,7 +3194,7 @@
       <c r="G196" s="3"/>
       <c r="H196" s="3"/>
     </row>
-    <row r="197" spans="1:8" ht="18">
+    <row r="197" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="2"/>
@@ -3176,7 +3204,7 @@
       <c r="G197" s="3"/>
       <c r="H197" s="3"/>
     </row>
-    <row r="198" spans="1:8" ht="18">
+    <row r="198" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="2"/>
@@ -3186,7 +3214,7 @@
       <c r="G198" s="3"/>
       <c r="H198" s="3"/>
     </row>
-    <row r="199" spans="1:8" ht="18">
+    <row r="199" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="2"/>
@@ -3196,7 +3224,7 @@
       <c r="G199" s="3"/>
       <c r="H199" s="3"/>
     </row>
-    <row r="200" spans="1:8" ht="18">
+    <row r="200" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="2"/>
@@ -3206,7 +3234,7 @@
       <c r="G200" s="3"/>
       <c r="H200" s="3"/>
     </row>
-    <row r="201" spans="1:8" ht="18">
+    <row r="201" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="2"/>
@@ -3216,7 +3244,7 @@
       <c r="G201" s="3"/>
       <c r="H201" s="3"/>
     </row>
-    <row r="202" spans="1:8" ht="18">
+    <row r="202" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="2"/>
@@ -3226,7 +3254,7 @@
       <c r="G202" s="3"/>
       <c r="H202" s="3"/>
     </row>
-    <row r="203" spans="1:8" ht="18">
+    <row r="203" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="2"/>
@@ -3236,7 +3264,7 @@
       <c r="G203" s="3"/>
       <c r="H203" s="3"/>
     </row>
-    <row r="204" spans="1:8" ht="18">
+    <row r="204" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A204" s="3"/>
       <c r="C204" s="2"/>
       <c r="D204" s="3"/>
@@ -3245,7 +3273,7 @@
       <c r="G204" s="3"/>
       <c r="H204" s="3"/>
     </row>
-    <row r="205" spans="1:8" ht="18">
+    <row r="205" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A205" s="3"/>
       <c r="C205" s="1"/>
       <c r="D205" s="3"/>
@@ -3254,267 +3282,268 @@
       <c r="G205" s="3"/>
       <c r="H205" s="3"/>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C206" s="1"/>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C207" s="1"/>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C208" s="1"/>
     </row>
-    <row r="209" spans="3:3">
+    <row r="209" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C209" s="1"/>
     </row>
-    <row r="210" spans="3:3">
+    <row r="210" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C210" s="1"/>
     </row>
-    <row r="211" spans="3:3">
+    <row r="211" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C211" s="1"/>
     </row>
-    <row r="212" spans="3:3">
+    <row r="212" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C212" s="1"/>
     </row>
-    <row r="213" spans="3:3">
+    <row r="213" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C213" s="1"/>
     </row>
-    <row r="214" spans="3:3">
+    <row r="214" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C214" s="1"/>
     </row>
-    <row r="215" spans="3:3">
+    <row r="215" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C215" s="1"/>
     </row>
-    <row r="216" spans="3:3">
+    <row r="216" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C216" s="1"/>
     </row>
-    <row r="217" spans="3:3">
+    <row r="217" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C217" s="1"/>
     </row>
-    <row r="218" spans="3:3">
+    <row r="218" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C218" s="1"/>
     </row>
-    <row r="219" spans="3:3">
+    <row r="219" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C219" s="1"/>
     </row>
-    <row r="220" spans="3:3">
+    <row r="220" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C220" s="1"/>
     </row>
-    <row r="221" spans="3:3">
+    <row r="221" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C221" s="1"/>
     </row>
-    <row r="222" spans="3:3">
+    <row r="222" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C222" s="1"/>
     </row>
-    <row r="223" spans="3:3">
+    <row r="223" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C223" s="1"/>
     </row>
-    <row r="224" spans="3:3">
+    <row r="224" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C224" s="1"/>
     </row>
-    <row r="225" spans="3:3">
+    <row r="225" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C225" s="1"/>
     </row>
-    <row r="226" spans="3:3">
+    <row r="226" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C226" s="1"/>
     </row>
-    <row r="227" spans="3:3">
+    <row r="227" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C227" s="1"/>
     </row>
-    <row r="228" spans="3:3">
+    <row r="228" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C228" s="1"/>
     </row>
-    <row r="229" spans="3:3">
+    <row r="229" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C229" s="1"/>
     </row>
-    <row r="230" spans="3:3">
+    <row r="230" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C230" s="1"/>
     </row>
-    <row r="231" spans="3:3">
+    <row r="231" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C231" s="1"/>
     </row>
-    <row r="232" spans="3:3">
+    <row r="232" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C232" s="1"/>
     </row>
-    <row r="233" spans="3:3">
+    <row r="233" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C233" s="1"/>
     </row>
-    <row r="234" spans="3:3">
+    <row r="234" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C234" s="1"/>
     </row>
-    <row r="235" spans="3:3">
+    <row r="235" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C235" s="1"/>
     </row>
-    <row r="236" spans="3:3">
+    <row r="236" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C236" s="1"/>
     </row>
-    <row r="237" spans="3:3">
+    <row r="237" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C237" s="1"/>
     </row>
-    <row r="238" spans="3:3">
+    <row r="238" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C238" s="1"/>
     </row>
-    <row r="239" spans="3:3">
+    <row r="239" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C239" s="1"/>
     </row>
-    <row r="240" spans="3:3">
+    <row r="240" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C240" s="1"/>
     </row>
-    <row r="241" spans="3:3">
+    <row r="241" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C241" s="1"/>
     </row>
-    <row r="242" spans="3:3">
+    <row r="242" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C242" s="1"/>
     </row>
-    <row r="243" spans="3:3">
+    <row r="243" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C243" s="1"/>
     </row>
-    <row r="244" spans="3:3">
+    <row r="244" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C244" s="1"/>
     </row>
-    <row r="245" spans="3:3">
+    <row r="245" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C245" s="1"/>
     </row>
-    <row r="246" spans="3:3">
+    <row r="246" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C246" s="1"/>
     </row>
-    <row r="247" spans="3:3">
+    <row r="247" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C247" s="1"/>
     </row>
-    <row r="248" spans="3:3">
+    <row r="248" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C248" s="1"/>
     </row>
-    <row r="249" spans="3:3">
+    <row r="249" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C249" s="1"/>
     </row>
-    <row r="250" spans="3:3">
+    <row r="250" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C250" s="1"/>
     </row>
-    <row r="251" spans="3:3">
+    <row r="251" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C251" s="1"/>
     </row>
-    <row r="252" spans="3:3">
+    <row r="252" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C252" s="1"/>
     </row>
-    <row r="253" spans="3:3">
+    <row r="253" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C253" s="1"/>
     </row>
-    <row r="254" spans="3:3">
+    <row r="254" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C254" s="1"/>
     </row>
-    <row r="255" spans="3:3">
+    <row r="255" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C255" s="1"/>
     </row>
-    <row r="256" spans="3:3">
+    <row r="256" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C256" s="1"/>
     </row>
-    <row r="257" spans="3:3">
+    <row r="257" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C257" s="1"/>
     </row>
-    <row r="258" spans="3:3">
+    <row r="258" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C258" s="1"/>
     </row>
-    <row r="259" spans="3:3">
+    <row r="259" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C259" s="1"/>
     </row>
-    <row r="260" spans="3:3">
+    <row r="260" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C260" s="1"/>
     </row>
-    <row r="261" spans="3:3">
+    <row r="261" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C261" s="1"/>
     </row>
-    <row r="262" spans="3:3">
+    <row r="262" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C262" s="1"/>
     </row>
-    <row r="263" spans="3:3">
+    <row r="263" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C263" s="1"/>
     </row>
-    <row r="264" spans="3:3">
+    <row r="264" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C264" s="1"/>
     </row>
-    <row r="265" spans="3:3">
+    <row r="265" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C265" s="1"/>
     </row>
-    <row r="266" spans="3:3">
+    <row r="266" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C266" s="1"/>
     </row>
-    <row r="267" spans="3:3">
+    <row r="267" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C267" s="1"/>
     </row>
-    <row r="268" spans="3:3">
+    <row r="268" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C268" s="1"/>
     </row>
-    <row r="269" spans="3:3">
+    <row r="269" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C269" s="1"/>
     </row>
-    <row r="270" spans="3:3">
+    <row r="270" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C270" s="1"/>
     </row>
-    <row r="271" spans="3:3">
+    <row r="271" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C271" s="1"/>
     </row>
-    <row r="272" spans="3:3">
+    <row r="272" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C272" s="1"/>
     </row>
-    <row r="273" spans="3:3">
+    <row r="273" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C273" s="1"/>
     </row>
-    <row r="274" spans="3:3">
+    <row r="274" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C274" s="1"/>
     </row>
-    <row r="275" spans="3:3">
+    <row r="275" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C275" s="1"/>
     </row>
-    <row r="276" spans="3:3">
+    <row r="276" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C276" s="1"/>
     </row>
-    <row r="277" spans="3:3">
+    <row r="277" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C277" s="1"/>
     </row>
-    <row r="278" spans="3:3">
+    <row r="278" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C278" s="1"/>
     </row>
-    <row r="279" spans="3:3">
+    <row r="279" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C279" s="1"/>
     </row>
-    <row r="280" spans="3:3">
+    <row r="280" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C280" s="1"/>
     </row>
-    <row r="281" spans="3:3">
+    <row r="281" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C281" s="1"/>
     </row>
-    <row r="282" spans="3:3">
+    <row r="282" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C282" s="1"/>
     </row>
-    <row r="283" spans="3:3">
+    <row r="283" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C283" s="1"/>
     </row>
-    <row r="284" spans="3:3">
+    <row r="284" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C284" s="1"/>
     </row>
-    <row r="285" spans="3:3">
+    <row r="285" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C285" s="1"/>
     </row>
-    <row r="286" spans="3:3">
+    <row r="286" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C286" s="1"/>
     </row>
-    <row r="287" spans="3:3">
+    <row r="287" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C287" s="1"/>
     </row>
-    <row r="288" spans="3:3">
+    <row r="288" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C288" s="1"/>
     </row>
-    <row r="289" spans="3:3">
+    <row r="289" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C289" s="1"/>
     </row>
-    <row r="290" spans="3:3">
+    <row r="290" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C290" s="1"/>
     </row>
-    <row r="291" spans="3:3">
+    <row r="291" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C291" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
